--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/30_Erzincan_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/30_Erzincan_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D9D81E-9376-47A4-911B-088478081282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85A9984-2DE7-4703-B78B-D0A57D12B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{A66FFC6E-0ED7-4A81-AC88-13A7A8042001}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{3954D684-A368-435A-980A-1AA1B5540CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -787,13 +787,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{046CB45E-5B9E-4323-BAD8-AD8835F402A3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{39BFAEE7-5989-47C8-8A5A-14A0F6836B00}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D60CA91F-FBD4-47A8-A807-C4AA8BD9EAEA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B05E7222-591A-4ABA-96D2-BA0928A1F651}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{AE9587D5-7CE1-4170-8878-FC211CD46537}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{218479A9-CA06-49CA-9FAF-88D80A4B940F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{536A4068-A070-4B54-B77E-8F56D64851FC}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AA8F1571-475B-4D6C-BE4A-25F87774658F}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D6713177-CF85-4EB9-B46A-B90E5035CB59}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{25413B1C-4608-4B11-B45D-446D239726A9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{AAA24DD7-4E0D-4EFF-9FD9-792E44BD3795}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{7625D36D-F7E7-4318-A814-7C1F6EF5DEE7}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A5BA923B-DEB5-4727-AE07-D85783936739}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{30EBA66E-51E7-4140-ADB9-8BBDC8EB7E0A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406B0F3F-2F48-4217-8F98-81D278F16201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD69401-4822-4497-97F1-B77DDF08BA75}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D59DB-0EE4-485B-AAF2-95316EC0A8EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E276BC2D-0018-4BAE-B3EF-8F3884947E55}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3625,7 +3625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E99B1D2-EC80-4E61-A0B4-0BA8366CF49D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6A614B-3178-4444-A5B8-23E8ECD16788}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4860,7 +4860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D12BD90-EDD1-4BDD-B1B2-37F5C3B7B187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B065F78-57B6-49F3-9C25-EF76510D6E6D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6097,7 +6097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92665967-0901-4758-BA4B-3ED29DB4BDC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E04F00B-5851-425D-BF42-78E4DE558737}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7316,7 +7316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B559BC-D322-4D65-BA4C-970E02E3789A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D2EB69-CAFE-4B0C-BAA9-D6B55C98D4BD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
